--- a/localized/en-us/games/books/bookdata/en_346/en_346.xlsx
+++ b/localized/en-us/games/books/bookdata/en_346/en_346.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunpah/Documents/Books/en/en_346/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLEXP-Team-KitkitSchool-Hindi-Assets-MainApp\localized\en-us\games\books\bookdata\en_346\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F110D88-5F47-2F45-9939-325960B8851E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07C40D6-58B1-478F-BF64-9ABD60660CDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="6860" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,34 +30,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Neema at the Clinic</t>
-  </si>
-  <si>
-    <t>Neema was very sick.</t>
-  </si>
-  <si>
-    <t>Neema told them her name.</t>
-  </si>
-  <si>
-    <t>After a while, the doctor called for Neema.</t>
-  </si>
-  <si>
-    <t>The doctor told Neema to get medicine.</t>
-  </si>
-  <si>
-    <t>Neema and her mother went to the medicine window.</t>
-  </si>
-  <si>
-    <t>Neema felt better a few days later.</t>
-  </si>
-  <si>
-    <t>Neema’s mother took her to the clinic.</t>
-  </si>
-  <si>
-    <t>Neema’s mother told the doctor how Neema was feeling.</t>
-  </si>
-  <si>
-    <t>The doctor checked Neema’s blood.</t>
+    <t>Priya at the Clinic</t>
+  </si>
+  <si>
+    <t>Priya was very sick.</t>
+  </si>
+  <si>
+    <t>Priya’s mother took her to the clinic.</t>
+  </si>
+  <si>
+    <t>Priya told them her name.</t>
+  </si>
+  <si>
+    <t>After a while, the doctor called for Priya.</t>
+  </si>
+  <si>
+    <t>Priya’s mother told the doctor how Priya was feeling.</t>
+  </si>
+  <si>
+    <t>The doctor checked Priya’s blood.</t>
+  </si>
+  <si>
+    <t>The doctor told Priya to get medicine.</t>
+  </si>
+  <si>
+    <t>Priya and her mother went to the medicine window.</t>
+  </si>
+  <si>
+    <t>Priya felt better a few days later.</t>
   </si>
 </sst>
 </file>
@@ -388,110 +388,110 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
